--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\django-black-dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52383322-4956-4EC9-A8E0-3AB929515CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invoices_df" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="CRM_lead" sheetId="8" r:id="rId8"/>
     <sheet name="employee_data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="350">
   <si>
     <t>id_invoice</t>
   </si>
@@ -42,6 +48,12 @@
     <t>invoice_line_ids</t>
   </si>
   <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
     <t>partner_name</t>
   </si>
   <si>
@@ -138,13 +150,19 @@
     <t>[{'id': 16, 'name': 'Redeem Reference Number: PO02529', 'price_unit': 541.1, 'quantity': 1.0, 'product_id': False, 'account_id': [26, '600000 Expenses']}]</t>
   </si>
   <si>
+    <t>MMBY</t>
+  </si>
+  <si>
+    <t>Marc Demo</t>
+  </si>
+  <si>
+    <t>MISSING_USER</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 'Azure Interior'</t>
   </si>
   <si>
     <t xml:space="preserve"> 'Deco Addict'</t>
-  </si>
-  <si>
-    <t>MISSING_NAME</t>
   </si>
   <si>
     <t>invoice_id</t>
@@ -870,74 +888,209 @@
     <t>[335]</t>
   </si>
   <si>
-    <t>{'id': 20, 'name': 'Abigail Peterson', 'work_email': 'abigail.peterson39@example.com', 'job_id': [3, 'Consultant'], 'job_title': 'Consultant', 'department_id': [5, 'Professional Services']}</t>
-  </si>
-  <si>
-    <t>{'id': 3, 'name': 'Anita Oliver', 'work_email': 'anita.oliver32@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 9, 'name': 'Audrey Peterson', 'work_email': 'audrey.peterson25@example.com', 'job_id': [3, 'Consultant'], 'job_title': 'Consultant', 'department_id': [5, 'Professional Services']}</t>
-  </si>
-  <si>
-    <t>{'id': 17, 'name': 'Beth Evans', 'work_email': 'beth.evans77@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 15, 'name': 'Doris Cole', 'work_email': 'doris.cole31@example.com', 'job_id': [3, 'Consultant'], 'job_title': 'Consultant', 'department_id': [5, 'Professional Services']}</t>
-  </si>
-  <si>
-    <t>{'id': 19, 'name': 'Eli Lambert', 'work_email': 'eli.lambert22@example.com', 'job_id': [6, 'Marketing and Community Manager'], 'job_title': 'Marketing and Community Manager', 'department_id': [2, 'Sales']}</t>
-  </si>
-  <si>
-    <t>{'id': 18, 'name': 'Ernest Reed', 'work_email': 'ernest.reed47@example.com', 'job_id': [3, 'Consultant'], 'job_title': 'Consultant', 'department_id': [5, 'Professional Services']}</t>
-  </si>
-  <si>
-    <t>{'id': 11, 'name': 'Jeffrey Kelly', 'work_email': 'jeffrey.kelly72@example.com', 'job_id': [6, 'Marketing and Community Manager'], 'job_title': 'Marketing and Community Manager', 'department_id': [2, 'Sales']}</t>
-  </si>
-  <si>
-    <t>{'id': 6, 'name': 'Jennie Fletcher', 'work_email': 'jennie.fletcher76@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 8, 'name': 'Keith Byrd', 'work_email': 'keith.byrd52@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 1, 'name': 'MMBY', 'work_email': 'aiden.hughes71@example.com', 'job_id': [1, 'Chief Executive Officer'], 'job_title': 'Chief Executive Officer', 'department_id': [3, 'Management']}</t>
-  </si>
-  <si>
-    <t>{'id': 7, 'name': 'Marc Demo', 'work_email': 'mark.brown23@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 14, 'name': 'Paul Williams', 'work_email': 'paul.williams59@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [3, 'Management']}</t>
-  </si>
-  <si>
-    <t>{'id': 16, 'name': 'Rachel Perry', 'work_email': 'jod@odoo.com', 'job_id': [6, 'Marketing and Community Manager'], 'job_title': 'Marketing and Community Manager', 'department_id': [2, 'Sales']}</t>
-  </si>
-  <si>
-    <t>{'id': 5, 'name': 'Randall Lewis', 'work_email': 'randall.lewis74@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 2, 'name': 'Ronnie Hart', 'work_email': 'ronnie.hart87@example.com', 'job_id': [2, 'Chief Technical Officer'], 'job_title': 'Chief Technical Officer', 'department_id': [4, 'Research &amp; Development']}</t>
-  </si>
-  <si>
-    <t>{'id': 4, 'name': 'Sharlene Rhodes', 'work_email': 'sharlene.rhodes49@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [3, 'Management']}</t>
-  </si>
-  <si>
-    <t>{'id': 12, 'name': 'Tina Williamson', 'work_email': 'tina.williamson98@example.com', 'job_id': [5, 'Human Resources Manager'], 'job_title': 'Human Resources Manager', 'department_id': [1, 'Administration']}</t>
-  </si>
-  <si>
-    <t>{'id': 10, 'name': 'Toni Jimenez', 'work_email': 'toni.jimenez23@example.com', 'job_id': [3, 'Consultant'], 'job_title': 'Consultant', 'department_id': [5, 'Professional Services']}</t>
-  </si>
-  <si>
-    <t>{'id': 13, 'name': 'Walter Horton', 'work_email': 'walter.horton80@example.com', 'job_id': [4, 'Experienced Developer'], 'job_title': 'Experienced Developer', 'department_id': [4, 'Research &amp; Development']}</t>
+    <t>work_email</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>Abigail Peterson</t>
+  </si>
+  <si>
+    <t>Anita Oliver</t>
+  </si>
+  <si>
+    <t>Audrey Peterson</t>
+  </si>
+  <si>
+    <t>Beth Evans</t>
+  </si>
+  <si>
+    <t>Doris Cole</t>
+  </si>
+  <si>
+    <t>Eli Lambert</t>
+  </si>
+  <si>
+    <t>Ernest Reed</t>
+  </si>
+  <si>
+    <t>Jeffrey Kelly</t>
+  </si>
+  <si>
+    <t>Jennie Fletcher</t>
+  </si>
+  <si>
+    <t>Keith Byrd</t>
+  </si>
+  <si>
+    <t>Paul Williams</t>
+  </si>
+  <si>
+    <t>Rachel Perry</t>
+  </si>
+  <si>
+    <t>Randall Lewis</t>
+  </si>
+  <si>
+    <t>Ronnie Hart</t>
+  </si>
+  <si>
+    <t>Sharlene Rhodes</t>
+  </si>
+  <si>
+    <t>Tina Williamson</t>
+  </si>
+  <si>
+    <t>Toni Jimenez</t>
+  </si>
+  <si>
+    <t>Walter Horton</t>
+  </si>
+  <si>
+    <t>abigail.peterson39@example.com</t>
+  </si>
+  <si>
+    <t>anita.oliver32@example.com</t>
+  </si>
+  <si>
+    <t>audrey.peterson25@example.com</t>
+  </si>
+  <si>
+    <t>beth.evans77@example.com</t>
+  </si>
+  <si>
+    <t>doris.cole31@example.com</t>
+  </si>
+  <si>
+    <t>eli.lambert22@example.com</t>
+  </si>
+  <si>
+    <t>ernest.reed47@example.com</t>
+  </si>
+  <si>
+    <t>jeffrey.kelly72@example.com</t>
+  </si>
+  <si>
+    <t>jennie.fletcher76@example.com</t>
+  </si>
+  <si>
+    <t>keith.byrd52@example.com</t>
+  </si>
+  <si>
+    <t>aiden.hughes71@example.com</t>
+  </si>
+  <si>
+    <t>mark.brown23@example.com</t>
+  </si>
+  <si>
+    <t>paul.williams59@example.com</t>
+  </si>
+  <si>
+    <t>jod@odoo.com</t>
+  </si>
+  <si>
+    <t>randall.lewis74@example.com</t>
+  </si>
+  <si>
+    <t>ronnie.hart87@example.com</t>
+  </si>
+  <si>
+    <t>sharlene.rhodes49@example.com</t>
+  </si>
+  <si>
+    <t>tina.williamson98@example.com</t>
+  </si>
+  <si>
+    <t>toni.jimenez23@example.com</t>
+  </si>
+  <si>
+    <t>walter.horton80@example.com</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Experienced Developer</t>
+  </si>
+  <si>
+    <t>Marketing and Community Manager</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Chief Technical Officer</t>
+  </si>
+  <si>
+    <t>Human Resources Manager</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>Client X'</t>
+  </si>
+  <si>
+    <t>'Client X'</t>
+  </si>
+  <si>
+    <t>FAC/2024/0011</t>
+  </si>
+  <si>
+    <t>FACTU/2024/05/0011</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0077</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0066</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0055</t>
+  </si>
+  <si>
+    <t>SpaceX'</t>
+  </si>
+  <si>
+    <t>tesla'</t>
+  </si>
+  <si>
+    <t>black'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,25 +1142,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1045,7 +1207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1079,6 +1241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1113,9 +1276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1288,14 +1452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1491,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1326,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>45447</v>
@@ -1335,16 +1515,22 @@
         <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1352,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>45422</v>
@@ -1361,16 +1547,22 @@
         <v>36512.5</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1378,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>45420</v>
@@ -1387,16 +1579,22 @@
         <v>22137.5</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1404,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>45420</v>
@@ -1413,16 +1611,22 @@
         <v>48012.5</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1430,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>45413</v>
@@ -1439,16 +1643,22 @@
         <v>1414.5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1456,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>45413</v>
@@ -1465,16 +1675,22 @@
         <v>36512.5</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1482,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>45292</v>
@@ -1491,16 +1707,22 @@
         <v>96.67</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1508,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>45292</v>
@@ -1517,16 +1739,22 @@
         <v>750</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1534,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>45292</v>
@@ -1543,16 +1771,22 @@
         <v>102.78</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1560,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>45292</v>
@@ -1569,16 +1803,22 @@
         <v>2000</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>339</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1586,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>45292</v>
@@ -1595,16 +1835,22 @@
         <v>650</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1612,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>45292</v>
@@ -1621,16 +1867,22 @@
         <v>32.58</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>339</v>
+      </c>
+      <c r="J13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1638,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>45292</v>
@@ -1647,16 +1899,22 @@
         <v>1275</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>339</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1664,7 +1922,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>43360</v>
@@ -1673,13 +1931,211 @@
         <v>622.27</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E16">
+        <v>4581</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E17">
+        <v>9876</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E18">
+        <v>9632</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E19">
+        <v>660</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>339</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44713</v>
+      </c>
+      <c r="E20">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E21">
+        <v>740</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>339</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -1688,34 +2144,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1723,10 +2179,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -1738,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1746,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -1761,7 +2217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1769,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -1784,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1792,10 +2248,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -1807,7 +2263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1815,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -1830,7 +2286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1838,10 +2294,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -1853,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1861,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -1876,7 +2332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1884,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -1899,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1907,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -1922,7 +2378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1930,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -1945,7 +2401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1953,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -1974,31 +2430,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2012,8 +2468,14 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2021,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -2042,13 +2504,19 @@
         <v>368</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2056,10 +2524,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2077,13 +2545,19 @@
         <v>36512.5</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2091,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2112,13 +2586,19 @@
         <v>36512.5</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2126,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2147,13 +2627,16 @@
         <v>22137.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2161,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2182,13 +2665,16 @@
         <v>22137.5</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2196,10 +2682,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2217,13 +2703,16 @@
         <v>48012.5</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2231,10 +2720,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2252,13 +2741,16 @@
         <v>48012.5</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2266,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2287,13 +2779,19 @@
         <v>1414.5</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2301,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2322,13 +2820,19 @@
         <v>1414.5</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2336,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2357,13 +2861,19 @@
         <v>36512.5</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2371,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2392,10 +2902,16 @@
         <v>36512.5</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2404,37 +2920,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2442,7 +2958,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>295</v>
@@ -2451,16 +2967,16 @@
         <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2468,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>140</v>
@@ -2477,16 +2993,16 @@
         <v>120.5</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2494,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -2503,16 +3019,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2520,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -2529,16 +3045,16 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2546,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>147</v>
@@ -2555,16 +3071,16 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2572,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>750</v>
@@ -2581,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2598,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -2607,16 +3123,16 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2624,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>450</v>
@@ -2633,16 +3149,16 @@
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2650,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>2100</v>
@@ -2659,16 +3175,16 @@
         <v>2010</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2676,7 +3192,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>110.5</v>
@@ -2685,16 +3201,16 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2702,7 +3218,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -2711,16 +3227,16 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2728,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>1950</v>
@@ -2737,16 +3253,16 @@
         <v>1700</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2754,7 +3270,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>2350</v>
@@ -2763,16 +3279,16 @@
         <v>2500</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2780,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -2789,16 +3305,16 @@
         <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2806,7 +3322,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>885</v>
@@ -2815,16 +3331,16 @@
         <v>876</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2832,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>320</v>
@@ -2841,16 +3357,16 @@
         <v>800</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2858,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>1799</v>
@@ -2867,16 +3383,16 @@
         <v>1299</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2884,7 +3400,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -2893,16 +3409,16 @@
         <v>4500</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2910,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -2919,16 +3435,16 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2936,7 +3452,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>120.5</v>
@@ -2945,16 +3461,16 @@
         <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2962,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>280</v>
@@ -2971,16 +3487,16 @@
         <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2988,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -2997,16 +3513,16 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3014,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>47</v>
@@ -3023,16 +3539,16 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3040,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -3049,16 +3565,16 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3066,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>15.8</v>
@@ -3075,16 +3591,16 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3092,7 +3608,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <v>1500</v>
@@ -3101,16 +3617,16 @@
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3118,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>38.25</v>
@@ -3127,16 +3643,16 @@
         <v>25.5</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3144,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>30.75</v>
@@ -3153,10 +3669,10 @@
         <v>20.5</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3168,43 +3684,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3212,31 +3728,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3244,31 +3760,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3276,31 +3792,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3308,31 +3824,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3340,31 +3856,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3372,31 +3888,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3404,31 +3920,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3436,28 +3952,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3466,58 +3982,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3525,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3546,25 +4062,25 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" t="s">
-        <v>118</v>
-      </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3572,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3593,25 +4109,25 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3619,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3640,25 +4156,25 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3666,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3687,22 +4203,22 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3711,76 +4227,76 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3788,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3803,13 +4319,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -3839,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3853,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3868,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3904,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -3916,55 +4432,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3978,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3996,19 +4512,19 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4016,13 +4532,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4040,19 +4556,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4060,43 +4576,43 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4104,43 +4620,43 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4148,43 +4664,43 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4192,43 +4708,43 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4236,43 +4752,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4280,43 +4796,43 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4324,13 +4840,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4348,19 +4864,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4368,13 +4884,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4392,19 +4908,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4412,13 +4928,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4436,19 +4952,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4456,13 +4972,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4480,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4500,13 +5016,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4524,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4544,13 +5060,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4568,19 +5084,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4588,13 +5104,13 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4612,19 +5128,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4632,13 +5148,13 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4656,19 +5172,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4676,13 +5192,13 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4700,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4720,13 +5236,13 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4744,19 +5260,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4764,13 +5280,13 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4788,19 +5304,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4808,13 +5324,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4832,19 +5348,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4852,13 +5368,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4876,19 +5392,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4896,13 +5412,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4920,19 +5436,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4940,13 +5456,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4964,19 +5480,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4984,13 +5500,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5008,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5028,13 +5544,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5052,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5072,13 +5588,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -5096,19 +5612,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5116,13 +5632,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -5140,19 +5656,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5160,13 +5676,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -5184,19 +5700,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5204,13 +5720,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -5228,19 +5744,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5248,43 +5764,43 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5292,43 +5808,43 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5336,43 +5852,43 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5380,43 +5896,43 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5424,43 +5940,43 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5468,43 +5984,43 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5512,13 +6028,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5536,19 +6052,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5556,13 +6072,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -5580,19 +6096,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5600,13 +6116,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -5624,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5650,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -5668,19 +6184,19 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M40" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5694,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -5712,19 +6228,19 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5738,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -5756,19 +6272,19 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5782,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -5800,19 +6316,19 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5826,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -5844,19 +6360,19 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5864,43 +6380,43 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I45" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L45" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5908,37 +6424,37 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L46" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -5950,176 +6466,554 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>300</v>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\django-black-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52383322-4956-4EC9-A8E0-3AB929515CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0948D02-4B02-47D5-A0E7-D2F34292961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invoices_df" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="383">
   <si>
     <t>id_invoice</t>
   </si>
@@ -186,24 +186,6 @@
     <t>AAAA</t>
   </si>
   <si>
-    <t>[FURN_6741] Large Meeting Table
-Une table de salle de conférence</t>
-  </si>
-  <si>
-    <t>[FURN_8220] Four Person Desk
-Poste de travail moderne pour quatre personnes</t>
-  </si>
-  <si>
-    <t>[FURN_8999] Three-Seat Sofa
-Canapé trois places avec chaise longue de couleur gris acier</t>
-  </si>
-  <si>
-    <t>[FURN_7777] Office Chair</t>
-  </si>
-  <si>
-    <t>[FURN_9999] Office Design Software</t>
-  </si>
-  <si>
     <t>id_product</t>
   </si>
   <si>
@@ -1081,6 +1063,133 @@
   </si>
   <si>
     <t>black'</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>chaise</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>[FURN</t>
+  </si>
+  <si>
+    <t>[FURNsa</t>
+  </si>
+  <si>
+    <t>[FURN_9999</t>
+  </si>
+  <si>
+    <t>[FURN_6741]</t>
+  </si>
+  <si>
+    <r>
+      <t>[FURN_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8220] </t>
+    </r>
+  </si>
+  <si>
+    <t>SVC/2024/00001</t>
+  </si>
+  <si>
+    <t>Support package (Gold)</t>
+  </si>
+  <si>
+    <t>Sophia Williams</t>
+  </si>
+  <si>
+    <t>PCH/2024/00003</t>
+  </si>
+  <si>
+    <t>Software license (XYZ)</t>
+  </si>
+  <si>
+    <t>Daniel Garcia</t>
+  </si>
+  <si>
+    <t>GAS/2024/00009</t>
+  </si>
+  <si>
+    <t>Stapler</t>
+  </si>
+  <si>
+    <t>Emily Jones</t>
+  </si>
+  <si>
+    <t>FAC/2024/00010</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>899.99</t>
+  </si>
+  <si>
+    <t>Marc Dem 'Deco Ado</t>
+  </si>
+  <si>
+    <t>ORD/2024/00003</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Chris Miller</t>
+  </si>
+  <si>
+    <t>SVC/2024/00002</t>
+  </si>
+  <si>
+    <t>Consulting hours</t>
+  </si>
+  <si>
+    <t>Olivia Brown</t>
+  </si>
+  <si>
+    <t>PCH/2024/00004</t>
+  </si>
+  <si>
+    <t>Hardware upgrade</t>
+  </si>
+  <si>
+    <t>Custom quote</t>
+  </si>
+  <si>
+    <t>GAS/2024/00011</t>
+  </si>
+  <si>
+    <t>Printer ink</t>
+  </si>
+  <si>
+    <t>49.98</t>
+  </si>
+  <si>
+    <t>FAC/2024/00012</t>
+  </si>
+  <si>
+    <t>Desk chair</t>
+  </si>
+  <si>
+    <t>ORD/2024/00004</t>
+  </si>
+  <si>
+    <t>Sticky notes</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1215,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1115,7 +1230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1138,17 +1253,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1618,7 @@
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="70.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="57.85546875" customWidth="1"/>
   </cols>
@@ -1588,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
@@ -1620,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -1716,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
@@ -1780,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1812,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
@@ -1844,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -1876,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1908,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J14" t="s">
         <v>43</v>
@@ -1940,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
@@ -1972,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1986,7 +2140,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D17" s="2">
         <v>45047</v>
@@ -2007,7 +2161,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,7 +2172,7 @@
         <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D18" s="2">
         <v>45292</v>
@@ -2039,7 +2193,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2050,7 +2204,7 @@
         <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D19" s="2">
         <v>44562</v>
@@ -2068,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2082,7 +2236,7 @@
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D20" s="2">
         <v>44713</v>
@@ -2100,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2114,7 +2268,7 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -2132,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2145,11 +2299,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -2205,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>345</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2228,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2251,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2274,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2297,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2320,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2343,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2366,7 +2525,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2389,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2401,7 +2560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2412,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2422,6 +2581,236 @@
       </c>
       <c r="G12">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13">
+        <v>1500</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14">
+        <v>2350</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15">
+        <v>2350</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18">
+        <v>235</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19">
+        <v>4000</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20">
+        <v>2350</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21">
+        <v>1500</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22">
+        <v>2350</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2431,11 +2820,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -2527,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>345</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2568,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2609,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2647,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2685,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2723,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2761,7 +3159,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2802,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2843,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2873,7 +3271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2884,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2914,8 +3312,425 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I13" s="6">
+        <v>45478.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>500</v>
+      </c>
+      <c r="K13" s="4">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I14" s="6">
+        <v>45481.416666666664</v>
+      </c>
+      <c r="J14" s="4">
+        <v>598</v>
+      </c>
+      <c r="K14" s="4">
+        <v>18</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45482.625</v>
+      </c>
+      <c r="J15" s="4">
+        <v>50</v>
+      </c>
+      <c r="K15" s="4">
+        <v>14</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45483.375</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I17" s="6">
+        <v>45484.458333333336</v>
+      </c>
+      <c r="J17" s="4">
+        <v>105</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I18" s="6">
+        <v>45485.583333333336</v>
+      </c>
+      <c r="J18" s="4">
+        <v>450</v>
+      </c>
+      <c r="K18" s="4">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I19" s="6">
+        <v>45488.333333333336</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I20" s="6">
+        <v>45489.541666666664</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K20" s="4">
+        <v>14</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I21" s="6">
+        <v>45490.395833333336</v>
+      </c>
+      <c r="J21" s="4">
+        <v>175</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45491.666666666664</v>
+      </c>
+      <c r="J22" s="4">
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2929,25 +3744,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,7 +3773,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>295</v>
@@ -2967,10 +3782,10 @@
         <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2984,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>140</v>
@@ -2993,10 +3808,10 @@
         <v>120.5</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3010,7 +3825,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -3019,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3036,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -3045,10 +3860,10 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3062,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>147</v>
@@ -3071,10 +3886,10 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3088,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>750</v>
@@ -3097,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3114,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -3123,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3140,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>450</v>
@@ -3149,10 +3964,10 @@
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3166,7 +3981,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>2100</v>
@@ -3175,10 +3990,10 @@
         <v>2010</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3192,7 +4007,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>110.5</v>
@@ -3201,10 +4016,10 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3218,7 +4033,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -3227,10 +4042,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3244,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>1950</v>
@@ -3253,10 +4068,10 @@
         <v>1700</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3270,7 +4085,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>2350</v>
@@ -3279,10 +4094,10 @@
         <v>2500</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3296,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -3305,10 +4120,10 @@
         <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3322,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>885</v>
@@ -3331,10 +4146,10 @@
         <v>876</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3348,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>320</v>
@@ -3357,10 +4172,10 @@
         <v>800</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3374,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>1799</v>
@@ -3383,10 +4198,10 @@
         <v>1299</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3400,7 +4215,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -3409,10 +4224,10 @@
         <v>4500</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3426,7 +4241,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -3435,10 +4250,10 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3452,7 +4267,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>120.5</v>
@@ -3461,10 +4276,10 @@
         <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3478,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>280</v>
@@ -3487,10 +4302,10 @@
         <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3504,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -3513,10 +4328,10 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3530,7 +4345,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <v>47</v>
@@ -3539,10 +4354,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3556,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -3565,10 +4380,10 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" t="s">
-        <v>96</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3582,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>15.8</v>
@@ -3591,10 +4406,10 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3608,7 +4423,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>1500</v>
@@ -3617,10 +4432,10 @@
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3634,7 +4449,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>38.25</v>
@@ -3643,10 +4458,10 @@
         <v>25.5</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3660,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>30.75</v>
@@ -3669,10 +4484,10 @@
         <v>20.5</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3690,34 +4505,42 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3728,28 +4551,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3760,28 +4583,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3792,28 +4615,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3824,28 +4647,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
-        <v>114</v>
-      </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,28 +4679,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3888,28 +4711,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3920,28 +4743,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3952,28 +4775,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3991,46 +4814,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4041,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4062,22 +4885,22 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>127</v>
-      </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4088,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4109,22 +4932,22 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
         <v>123</v>
       </c>
-      <c r="L3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" t="s">
-        <v>128</v>
-      </c>
       <c r="O3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4135,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4156,22 +4979,22 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4182,7 +5005,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4203,22 +5026,22 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4236,64 +5059,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4304,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4319,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -4355,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -4369,7 +5192,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -4384,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -4420,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -4438,46 +5261,49 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4494,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4512,13 +5338,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -4532,13 +5358,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4556,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -4576,37 +5402,37 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s">
         <v>180</v>
       </c>
-      <c r="G4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" t="s">
-        <v>185</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
         <v>238</v>
-      </c>
-      <c r="M4" t="s">
-        <v>243</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -4620,37 +5446,37 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
         <v>180</v>
       </c>
-      <c r="G5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" t="s">
-        <v>185</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" t="s">
         <v>239</v>
-      </c>
-      <c r="M5" t="s">
-        <v>244</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -4664,37 +5490,37 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
         <v>163</v>
       </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -4708,37 +5534,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -4752,37 +5578,37 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -4796,37 +5622,37 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -4840,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4864,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -4884,13 +5710,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4908,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -4928,13 +5754,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4952,13 +5778,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -4972,13 +5798,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4996,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -5016,13 +5842,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5040,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -5060,13 +5886,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
-        <v>163</v>
-      </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5084,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -5104,13 +5930,13 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
         <v>158</v>
       </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5128,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -5148,13 +5974,13 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
         <v>158</v>
       </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5172,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -5192,13 +6018,13 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
         <v>158</v>
       </c>
-      <c r="D18" t="s">
-        <v>163</v>
-      </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5216,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -5236,13 +6062,13 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
         <v>158</v>
       </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5260,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -5280,13 +6106,13 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5304,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -5324,13 +6150,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
         <v>158</v>
       </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5348,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -5368,13 +6194,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5392,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -5412,13 +6238,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
         <v>158</v>
       </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -5436,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -5456,13 +6282,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
         <v>158</v>
       </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5480,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -5500,13 +6326,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
         <v>158</v>
       </c>
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5524,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -5544,13 +6370,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
-        <v>163</v>
-      </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5568,13 +6394,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -5588,13 +6414,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
         <v>158</v>
       </c>
-      <c r="D27" t="s">
-        <v>163</v>
-      </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -5612,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -5632,13 +6458,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
         <v>158</v>
       </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -5656,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -5676,13 +6502,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -5700,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -5720,13 +6546,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -5744,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -5764,37 +6590,37 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
         <v>158</v>
       </c>
-      <c r="D31" t="s">
-        <v>163</v>
-      </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
@@ -5808,37 +6634,37 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
@@ -5852,37 +6678,37 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
         <v>159</v>
       </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" t="s">
         <v>182</v>
       </c>
-      <c r="H33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I33" t="s">
-        <v>187</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -5896,37 +6722,37 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
         <v>158</v>
       </c>
-      <c r="D34" t="s">
-        <v>163</v>
-      </c>
       <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
         <v>175</v>
       </c>
-      <c r="F34" t="s">
-        <v>180</v>
-      </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -5940,37 +6766,37 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="s">
         <v>182</v>
       </c>
-      <c r="H35" t="s">
-        <v>184</v>
-      </c>
-      <c r="I35" t="s">
-        <v>187</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -5984,37 +6810,37 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
-        <v>163</v>
-      </c>
       <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" t="s">
         <v>177</v>
       </c>
-      <c r="F36" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" t="s">
-        <v>182</v>
-      </c>
       <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="s">
         <v>184</v>
       </c>
-      <c r="I36" t="s">
-        <v>189</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
@@ -6028,13 +6854,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6052,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
@@ -6072,13 +6898,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6096,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
@@ -6116,13 +6942,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6140,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
@@ -6166,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6184,13 +7010,13 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
@@ -6210,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6228,13 +7054,13 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
@@ -6254,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6272,13 +7098,13 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
+        <v>227</v>
+      </c>
+      <c r="L42" t="s">
         <v>232</v>
       </c>
-      <c r="L42" t="s">
-        <v>237</v>
-      </c>
       <c r="M42" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -6298,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6316,13 +7142,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -6342,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6360,13 +7186,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -6380,37 +7206,37 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
-        <v>163</v>
-      </c>
       <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" t="s">
         <v>178</v>
       </c>
-      <c r="F45" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>183</v>
       </c>
-      <c r="I45" t="s">
-        <v>188</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -6424,37 +7250,37 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" t="s">
         <v>182</v>
       </c>
-      <c r="H46" t="s">
-        <v>183</v>
-      </c>
-      <c r="I46" t="s">
-        <v>187</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -6472,28 +7298,34 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6504,22 +7336,22 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6530,22 +7362,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6556,22 +7388,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6582,22 +7414,22 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6608,22 +7440,22 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6634,22 +7466,22 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6660,22 +7492,22 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6686,22 +7518,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6712,22 +7544,22 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6738,22 +7570,22 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6767,19 +7599,19 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6793,19 +7625,19 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6816,22 +7648,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6842,22 +7674,22 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6868,22 +7700,22 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6894,22 +7726,22 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6920,22 +7752,22 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6946,22 +7778,22 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,22 +7804,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6998,22 +7830,22 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\django-black-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0948D02-4B02-47D5-A0E7-D2F34292961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA12F22-0F6B-4D18-A2FB-C03CBC7A2C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invoices_df" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="370">
   <si>
     <t>id_invoice</t>
   </si>
@@ -1108,88 +1108,49 @@
     <t>SVC/2024/00001</t>
   </si>
   <si>
-    <t>Support package (Gold)</t>
-  </si>
-  <si>
     <t>Sophia Williams</t>
   </si>
   <si>
     <t>PCH/2024/00003</t>
   </si>
   <si>
-    <t>Software license (XYZ)</t>
-  </si>
-  <si>
     <t>Daniel Garcia</t>
   </si>
   <si>
     <t>GAS/2024/00009</t>
   </si>
   <si>
-    <t>Stapler</t>
-  </si>
-  <si>
     <t>Emily Jones</t>
   </si>
   <si>
     <t>FAC/2024/00010</t>
   </si>
   <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>899.99</t>
-  </si>
-  <si>
     <t>Marc Dem 'Deco Ado</t>
   </si>
   <si>
     <t>ORD/2024/00003</t>
   </si>
   <si>
-    <t>Coffee</t>
-  </si>
-  <si>
     <t>Chris Miller</t>
   </si>
   <si>
     <t>SVC/2024/00002</t>
   </si>
   <si>
-    <t>Consulting hours</t>
-  </si>
-  <si>
     <t>Olivia Brown</t>
   </si>
   <si>
     <t>PCH/2024/00004</t>
   </si>
   <si>
-    <t>Hardware upgrade</t>
-  </si>
-  <si>
-    <t>Custom quote</t>
-  </si>
-  <si>
     <t>GAS/2024/00011</t>
   </si>
   <si>
-    <t>Printer ink</t>
-  </si>
-  <si>
-    <t>49.98</t>
-  </si>
-  <si>
     <t>FAC/2024/00012</t>
   </si>
   <si>
-    <t>Desk chair</t>
-  </si>
-  <si>
     <t>ORD/2024/00004</t>
-  </si>
-  <si>
-    <t>Sticky notes</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1293,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,7 +1568,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,12 +2260,13 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,8 +2572,8 @@
       <c r="B14" s="4">
         <v>21</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>357</v>
+      <c r="C14" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D14" t="s">
         <v>348</v>
@@ -2637,7 +2596,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
         <v>346</v>
@@ -2659,8 +2618,8 @@
       <c r="B16" s="4">
         <v>23</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>363</v>
+      <c r="C16" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D16" t="s">
         <v>349</v>
@@ -2676,14 +2635,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>24</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>367</v>
+      <c r="C17" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="D17" t="s">
         <v>350</v>
@@ -2699,14 +2658,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>25</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>370</v>
+      <c r="C18" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="D18" t="s">
         <v>351</v>
@@ -2722,14 +2681,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>373</v>
+      <c r="C19" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="D19" t="s">
         <v>347</v>
@@ -2745,14 +2704,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>27</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>376</v>
+      <c r="C20" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="D20" t="s">
         <v>348</v>
@@ -2768,14 +2727,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>379</v>
+      <c r="C21" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="D21" t="s">
         <v>346</v>
@@ -2791,14 +2750,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>381</v>
+      <c r="C22" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="D22" t="s">
         <v>349</v>
@@ -2822,17 +2781,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3312,7 +3273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3325,8 +3286,8 @@
       <c r="D13" t="s">
         <v>347</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>355</v>
+      <c r="E13">
+        <v>320</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3337,37 +3298,37 @@
       <c r="H13" s="2">
         <v>45422</v>
       </c>
-      <c r="I13" s="6">
-        <v>45478.5</v>
-      </c>
-      <c r="J13" s="4">
-        <v>500</v>
+      <c r="I13">
+        <v>368</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
       </c>
       <c r="K13" s="4">
         <v>25</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>357</v>
+      <c r="C14" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D14" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>358</v>
+      <c r="E14">
+        <v>4000</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3378,23 +3339,23 @@
       <c r="H14" s="2">
         <v>45420</v>
       </c>
-      <c r="I14" s="6">
-        <v>45481.416666666664</v>
-      </c>
-      <c r="J14" s="4">
-        <v>598</v>
+      <c r="I14">
+        <v>36512.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="4">
         <v>18</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3402,13 +3363,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
         <v>346</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>361</v>
+      <c r="E15">
+        <v>2350</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3419,17 +3380,17 @@
       <c r="H15" s="2">
         <v>45420</v>
       </c>
-      <c r="I15" s="6">
-        <v>45482.625</v>
-      </c>
-      <c r="J15" s="4">
-        <v>50</v>
+      <c r="I15">
+        <v>36512.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
       </c>
       <c r="K15" s="4">
         <v>14</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -3442,14 +3403,14 @@
       <c r="B16" s="4">
         <v>23</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>363</v>
+      <c r="C16" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D16" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>364</v>
+      <c r="E16">
+        <v>1500</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -3460,37 +3421,37 @@
       <c r="H16" s="2">
         <v>45422</v>
       </c>
-      <c r="I16" s="6">
-        <v>45483.375</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>365</v>
+      <c r="I16">
+        <v>22137.5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
       </c>
       <c r="K16" s="4">
         <v>6</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>366</v>
+      <c r="L16" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>24</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>367</v>
+      <c r="C17" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="D17" t="s">
         <v>350</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>368</v>
+      <c r="E17">
+        <v>2350</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3501,37 +3462,37 @@
       <c r="H17" s="2">
         <v>45420</v>
       </c>
-      <c r="I17" s="6">
-        <v>45484.458333333336</v>
-      </c>
-      <c r="J17" s="4">
-        <v>105</v>
+      <c r="I17">
+        <v>22137.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
       </c>
       <c r="K17" s="4">
         <v>5</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>25</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>370</v>
+      <c r="C18" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="D18" t="s">
         <v>351</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>371</v>
+      <c r="E18">
+        <v>2350</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3542,37 +3503,37 @@
       <c r="H18" s="2">
         <v>45420</v>
       </c>
-      <c r="I18" s="6">
-        <v>45485.583333333336</v>
-      </c>
-      <c r="J18" s="4">
-        <v>450</v>
+      <c r="I18">
+        <v>48012.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
       </c>
       <c r="K18" s="4">
         <v>30</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>373</v>
+      <c r="C19" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="D19" t="s">
         <v>347</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>374</v>
+      <c r="E19">
+        <v>1500</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -3583,37 +3544,37 @@
       <c r="H19" s="2">
         <v>45422</v>
       </c>
-      <c r="I19" s="6">
-        <v>45488.333333333336</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>375</v>
+      <c r="I19">
+        <v>48012.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
       </c>
       <c r="K19" s="4">
         <v>18</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>27</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>376</v>
+      <c r="C20" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="D20" t="s">
         <v>348</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>377</v>
+      <c r="E20">
+        <v>55</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3624,37 +3585,37 @@
       <c r="H20" s="2">
         <v>45420</v>
       </c>
-      <c r="I20" s="6">
-        <v>45489.541666666664</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>378</v>
+      <c r="I20">
+        <v>1414.5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
       </c>
       <c r="K20" s="4">
         <v>14</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>379</v>
+      <c r="C21" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="D21" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>380</v>
+      <c r="E21">
+        <v>235</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3665,37 +3626,37 @@
       <c r="H21" s="2">
         <v>45420</v>
       </c>
-      <c r="I21" s="6">
-        <v>45490.395833333336</v>
-      </c>
-      <c r="J21" s="4">
-        <v>175</v>
+      <c r="I21">
+        <v>1414.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>366</v>
+      <c r="L21" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>381</v>
+      <c r="C22" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="D22" t="s">
         <v>349</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>382</v>
+      <c r="E22">
+        <v>4000</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -3706,17 +3667,17 @@
       <c r="H22" s="2">
         <v>45422</v>
       </c>
-      <c r="I22" s="6">
-        <v>45491.666666666664</v>
-      </c>
-      <c r="J22" s="4">
-        <v>15</v>
+      <c r="I22">
+        <v>36512.5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M22" t="s">
         <v>43</v>
@@ -3738,9 +3699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -4048,7 +4014,7 @@
         <v>89</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,7 +4118,7 @@
         <v>89</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4360,7 +4326,7 @@
         <v>89</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4438,7 +4404,7 @@
         <v>89</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7295,14 +7261,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
